--- a/p102.xlsx
+++ b/p102.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dragonnomada/Desktop/banjercito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63862821-4CA4-AE41-B403-6BABB7E0B651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0181DD5-2EB0-AE4C-AD75-14E93D5401F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{FD92E14F-9EA2-4E4C-9B51-51E8ED581C1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38000" windowHeight="19300" activeTab="1" xr2:uid="{FD92E14F-9EA2-4E4C-9B51-51E8ED581C1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId2"/>
+    <pivotCache cacheId="47" r:id="rId3"/>
+    <pivotCache cacheId="53" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>Cliente</t>
   </si>
@@ -126,14 +128,18 @@
   </si>
   <si>
     <t>Recuperado</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -151,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,11 +180,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -184,32 +197,37 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -256,6 +274,55 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3200" maxValue="18900"/>
     </cacheField>
     <cacheField name="Deuda" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1600" maxValue="5300"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alan Badillo Salas" refreshedDate="45635.734273148148" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{10C1B501-868F-9B43-8518-D1017D89857B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E9" sheet="Hoja2"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Cliente" numFmtId="0">
+      <sharedItems count="6">
+        <s v="C001"/>
+        <s v="C002"/>
+        <s v="C003"/>
+        <s v="C004"/>
+        <s v="C005"/>
+        <s v="C006"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Género" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Hombre"/>
+        <s v="Mujer"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Crédito" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Monto" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3200" maxValue="18900" count="8">
+        <n v="14600"/>
+        <n v="16300"/>
+        <n v="18900"/>
+        <n v="12000"/>
+        <n v="6900"/>
+        <n v="3200"/>
+        <n v="15000"/>
+        <n v="12500"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Deuda" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1600" maxValue="5300"/>
     </cacheField>
   </cacheFields>
@@ -328,8 +395,69 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="P0001"/>
+    <x v="0"/>
+    <n v="3200"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="H0014"/>
+    <x v="1"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="P0002"/>
+    <x v="2"/>
+    <n v="1600"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="E0004"/>
+    <x v="3"/>
+    <n v="4800"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="E0032"/>
+    <x v="4"/>
+    <n v="5300"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="F0005"/>
+    <x v="5"/>
+    <n v="2100"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="G0128"/>
+    <x v="6"/>
+    <n v="1900"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="F0095"/>
+    <x v="7"/>
+    <n v="3500"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E16ADD4-2E2C-9844-AA36-7B33395F21DE}" name="TablaDinámica1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E16ADD4-2E2C-9844-AA36-7B33395F21DE}" name="TablaDinámica1" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G2:L11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -415,7 +543,7 @@
     <dataField name="Promedio de Deuda" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4" selected="0">
@@ -475,6 +603,163 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5311B56-E9AB-FD46-89CA-677AA569C641}" name="TablaDinámica2" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:L12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="9">
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Cuenta de Crédito" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Monto" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Deuda" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de Monto" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de Deuda" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="0" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -806,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B575E7-9311-CD46-A021-CF63AD11AC47}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,7 +1185,7 @@
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3">
         <v>4</v>
       </c>
       <c r="I3" s="5">
@@ -935,7 +1220,7 @@
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" s="5">
@@ -970,7 +1255,7 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="5">
@@ -1005,7 +1290,7 @@
       <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="5">
@@ -1040,7 +1325,7 @@
       <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>4</v>
       </c>
       <c r="I7" s="5">
@@ -1075,7 +1360,7 @@
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="5">
@@ -1110,7 +1395,7 @@
       <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="5">
@@ -1130,7 +1415,7 @@
       <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" s="5">
@@ -1150,7 +1435,7 @@
       <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>8</v>
       </c>
       <c r="I11" s="5">
@@ -1176,18 +1461,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:E9 E2">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D9">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="4Rating">
@@ -1210,6 +1483,441 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E9 E2">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B929C3A-0B89-EF40-ADA7-94CFF6AC18E1}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>14600</v>
+      </c>
+      <c r="E2">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>16300</v>
+      </c>
+      <c r="E3">
+        <v>2500</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>18900</v>
+      </c>
+      <c r="E4">
+        <v>1600</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6">
+        <v>57900</v>
+      </c>
+      <c r="J4" s="6">
+        <v>12400</v>
+      </c>
+      <c r="K4" s="6">
+        <v>14475</v>
+      </c>
+      <c r="L4" s="6">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>12000</v>
+      </c>
+      <c r="E5">
+        <v>4800</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>30900</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5700</v>
+      </c>
+      <c r="K5" s="6">
+        <v>15450</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>6900</v>
+      </c>
+      <c r="E6">
+        <v>5300</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>12000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4800</v>
+      </c>
+      <c r="K6" s="6">
+        <v>12000</v>
+      </c>
+      <c r="L6" s="7">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>3200</v>
+      </c>
+      <c r="E7">
+        <v>2100</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>15000</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1900</v>
+      </c>
+      <c r="K7" s="6">
+        <v>15000</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>15000</v>
+      </c>
+      <c r="E8">
+        <v>1900</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6">
+        <v>41500</v>
+      </c>
+      <c r="J8" s="6">
+        <v>12500</v>
+      </c>
+      <c r="K8" s="6">
+        <v>10375</v>
+      </c>
+      <c r="L8" s="6">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>12500</v>
+      </c>
+      <c r="E9">
+        <v>3500</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>18900</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1600</v>
+      </c>
+      <c r="K9" s="7">
+        <v>18900</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>6900</v>
+      </c>
+      <c r="J10" s="6">
+        <v>5300</v>
+      </c>
+      <c r="K10" s="6">
+        <v>6900</v>
+      </c>
+      <c r="L10" s="6">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>15700</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5600</v>
+      </c>
+      <c r="K11" s="6">
+        <v>7850</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="6">
+        <v>8</v>
+      </c>
+      <c r="I12" s="6">
+        <v>99400</v>
+      </c>
+      <c r="J12" s="6">
+        <v>24900</v>
+      </c>
+      <c r="K12" s="6">
+        <v>12425</v>
+      </c>
+      <c r="L12" s="6">
+        <v>3112.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="8">
+        <f>1-GETPIVOTDATA("Suma de Deuda",$G$3)/GETPIVOTDATA("Suma de Monto",$G$3)</f>
+        <v>0.74949698189134817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <f>GETPIVOTDATA("Suma de Monto",$G$3)-GETPIVOTDATA("Suma de Deuda",$G$3)</f>
+        <v>74500</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f>GETPIVOTDATA("Suma de Deuda",$G$3,"Género","Hombre")</f>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f>GETPIVOTDATA("Suma de Deuda",$G$3,"Género","Mujer")</f>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H21" s="9">
+        <f>1-H18/H19</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="K21">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D9">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="4Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>